--- a/paper/biosnap_papers.xlsx
+++ b/paper/biosnap_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fu19841/Documents/thesis_analysis/Chapter2/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B420C-D57F-164B-A18F-06EDF42948FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D37291-60D2-1943-8B31-D0DF013506F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="26960" windowHeight="16940" xr2:uid="{E12F268A-15B5-0947-8C72-D82EE4B297FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Mechanism</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>scores are best of the model from the three 'tasks' on the same dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 epochs, uses enzyme and drug transporter data, </t>
+  </si>
+  <si>
+    <t>120 epochs, uses atomic structure data in 'graph of graphs' format</t>
+  </si>
+  <si>
+    <t>Suspicious results. Model is decagon, extended with relation attention module.</t>
+  </si>
+  <si>
+    <t>Enzyme and transporter data, also removed ~100 drugs from decagon data</t>
+  </si>
+  <si>
+    <t>SAME DATA/AUTHORS AS MS-ADR</t>
+  </si>
+  <si>
+    <t>Chemical substructure data</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,19 +607,22 @@
       <c r="D2">
         <v>0.998</v>
       </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D3">
-        <v>0.98299999999999998</v>
+        <v>0.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -617,143 +638,152 @@
       <c r="D4">
         <v>0.98</v>
       </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.95499999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D5">
-        <v>0.97199999999999998</v>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>0.97799999999999998</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="D6">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="E6">
-        <v>0.98</v>
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C7">
-        <v>0.97499999999999998</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D7">
-        <v>0.96799999999999997</v>
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0.96250000000000002</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D8">
-        <v>0.96530000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9">
-        <v>0.95699999999999996</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="D9">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="E9">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
+        <v>0.96530000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.96</v>
       </c>
       <c r="D10">
-        <v>0.96</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
+        <v>0.71</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11">
-        <v>0.94830000000000003</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D11">
-        <v>0.95309999999999995</v>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="D12">
-        <v>0.95299999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13">
-        <v>0.93200000000000005</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D13">
-        <v>0.93799999999999994</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -772,246 +802,252 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15">
-        <v>0.94699999999999995</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="D15">
-        <v>0.93</v>
-      </c>
-      <c r="E15">
-        <v>0.89500000000000002</v>
+        <v>0.95309999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C16">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="D16">
         <v>0.93</v>
       </c>
-      <c r="D16">
-        <v>0.92</v>
+      <c r="E16">
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="D17">
-        <v>0.91500000000000004</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18">
-        <v>0.92800000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D18">
-        <v>0.90200000000000002</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D19">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="E19">
-        <v>0.83199999999999996</v>
+        <v>0.93169999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D20">
-        <v>0.88700000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>0.89900000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D21">
-        <v>0.878</v>
-      </c>
-      <c r="E21">
-        <v>0.85699999999999998</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D22">
-        <v>0.875</v>
-      </c>
-      <c r="E22">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
+        <v>0.91490000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0.872</v>
+        <v>0.91</v>
       </c>
       <c r="D23">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="E23">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>0.82199999999999995</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="D24">
-        <v>0.77500000000000002</v>
+        <v>0.875</v>
+      </c>
+      <c r="E24">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.96</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D25">
-        <v>0.71</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="E25">
-        <v>0.9</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>0.99</v>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.878</v>
+      </c>
+      <c r="E26">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.95699999999999996</v>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28">
-        <v>0.93899999999999995</v>
+        <v>0.872</v>
+      </c>
+      <c r="D28">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="E28">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.93169999999999997</v>
+        <v>0.86519999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.91490000000000005</v>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
-        <v>0.86519999999999997</v>
+      <c r="D31">
+        <v>0.96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1087,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
-    <sortCondition descending="1" ref="D1:D35"/>
+    <sortCondition descending="1" ref="C1:C35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper/biosnap_papers.xlsx
+++ b/paper/biosnap_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fu19841/Documents/thesis_analysis/Chapter2/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B48F5-761E-DE4E-B747-806F7A05ABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB046995-4A11-B149-B83D-2D7A27028191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="500" windowWidth="26960" windowHeight="16940" xr2:uid="{E12F268A-15B5-0947-8C72-D82EE4B297FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
   <si>
     <t>Mechanism</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Predicting Polypharmacy Side Effects Based on an Enhanced Domain Knowledge Graph</t>
   </si>
   <si>
+    <t>Predicting Polypharmacy Side Effects Through a Relation-Wise Graph Attention Network</t>
+  </si>
+  <si>
     <t>SimVec: predicting polypharmacy side effects for new drugs</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Presumably reported AP@k is k=50</t>
-  </si>
-  <si>
     <t>What is ESP?</t>
   </si>
   <si>
@@ -152,9 +152,6 @@
     <t>DeepDrug: A general graph-based deeplearning framework for drug-druginteractions and drug-targetinteractions prediction</t>
   </si>
   <si>
-    <t>auprc is highest of two results for '1vs2' and '1vs4'</t>
-  </si>
-  <si>
     <t>Adaptive dual graph contrastive learning based on heterogeneous signed network for predicting adverse drug reaction</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>CNN</t>
   </si>
   <si>
-    <t>Predictnoing Polypharmacy Side Effects Through a Relation-Wise Graph Attention Network</t>
-  </si>
-  <si>
     <t>SimVEc</t>
   </si>
   <si>
@@ -336,6 +330,12 @@
   </si>
   <si>
     <t>Dai et al, '20</t>
+  </si>
+  <si>
+    <t>Chemical substructure data, presumably reported AP@k is k=50</t>
+  </si>
+  <si>
+    <t>Chemical substructure data, protein substructure data, auprc is highest of two results for '1vs2' and '1vs4'</t>
   </si>
 </sst>
 </file>
@@ -701,26 +701,27 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="116.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="4" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -735,235 +736,265 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>0.999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>0.96599999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="F3">
-        <v>0.95299999999999996</v>
+        <v>0.998</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G5">
         <v>0.98</v>
-      </c>
-      <c r="F4">
-        <v>0.98</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5">
-        <v>0.91</v>
-      </c>
-      <c r="F5">
-        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>0.95699999999999996</v>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7">
-        <v>0.93899999999999995</v>
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>0.96599999999999997</v>
       </c>
       <c r="F8">
-        <v>0.96</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>0.93</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="F9">
-        <v>0.92</v>
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>0.88900000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F10">
-        <v>0.91500000000000004</v>
+        <v>0.71</v>
+      </c>
+      <c r="G10">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>0.90100000000000002</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="F11">
-        <v>0.89600000000000002</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="G11">
-        <v>0.83199999999999996</v>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="F12">
-        <v>0.77500000000000002</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>0.95499999999999996</v>
@@ -972,322 +1003,322 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F14">
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>0.99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.95309999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>0.92800000000000005</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F16">
-        <v>0.90200000000000002</v>
+        <v>0.93</v>
+      </c>
+      <c r="G16">
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E17">
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="F17">
-        <v>0.96530000000000005</v>
+        <v>0.93899999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>0.95699999999999996</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="F18">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="G18">
-        <v>0.96699999999999997</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.878</v>
-      </c>
-      <c r="G19">
-        <v>0.85699999999999998</v>
+        <v>0.93169999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E20">
-        <v>0.93169999999999997</v>
+        <v>0.93</v>
+      </c>
+      <c r="F20">
+        <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>0.94830000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="F21">
-        <v>0.95309999999999995</v>
+        <v>0.90200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E22">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="F22">
-        <v>0.93600000000000005</v>
+        <v>0.91490000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23">
-        <v>0.94699999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="F23">
-        <v>0.93</v>
-      </c>
-      <c r="G23">
-        <v>0.89500000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>0.872</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="F24">
-        <v>0.83199999999999996</v>
+        <v>0.875</v>
       </c>
       <c r="G24">
-        <v>0.80300000000000005</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25">
-        <v>0.97299999999999998</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="F25">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="E26">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.878</v>
+      </c>
+      <c r="G26">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E27">
-        <v>0.90300000000000002</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="F27">
-        <v>0.875</v>
-      </c>
-      <c r="G27">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>0.93200000000000005</v>
+        <v>0.872</v>
       </c>
       <c r="F28">
-        <v>0.93799999999999994</v>
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.80300000000000005</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1295,13 +1326,13 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.86519999999999997</v>
@@ -1309,168 +1340,141 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>0.96</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F30">
-        <v>0.71</v>
-      </c>
-      <c r="G30">
-        <v>0.9</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31">
-        <v>0.998</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>0.998</v>
+        <v>0.96</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33">
-        <v>0.91490000000000005</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="F34">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
+      <c r="A35" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="F35">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="G35">
-        <v>0.98</v>
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H35">
-    <sortCondition ref="A1:A35"/>
+    <sortCondition descending="1" ref="E1:E35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" display="https://link.springer.com/chapter/10.1007/978-3-030-06016-9_14" xr:uid="{9D0A80F5-1260-5443-A13C-458C0EB03FBC}"/>
-    <hyperlink ref="A32" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7233093/" xr:uid="{D3EA8483-61B1-D246-B9A4-F3ECF7E3A885}"/>
-    <hyperlink ref="A26" r:id="rId3" display="https://academic.oup.com/bioinformatics/article/37/18/2955/6170654" xr:uid="{72645EC3-9072-E14B-9923-2DB2B3B744F9}"/>
-    <hyperlink ref="A3" r:id="rId4" display="https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-021-04298-y" xr:uid="{F205E975-5CA8-B649-9845-12460B9DCDD6}"/>
-    <hyperlink ref="A23" r:id="rId5" display="https://link-springer-com.bris.idm.oclc.org/article/10.1007/s10489-021-02296-4" xr:uid="{A0164D2E-B329-B540-A541-3763B72EA7B1}"/>
-    <hyperlink ref="A30" r:id="rId6" display="https://link.springer.com/chapter/10.1007/978-3-030-61702-8_7" xr:uid="{DD76A4EF-5782-C443-B908-D12D8776389E}"/>
-    <hyperlink ref="A31" r:id="rId7" display="https://link.springer.com/chapter/10.1007/978-3-030-73973-7_12" xr:uid="{9C4EC909-37CB-054C-A9B8-FE05A304016A}"/>
-    <hyperlink ref="A34" r:id="rId8" display="https://jcheminf.biomedcentral.com/articles/10.1186/s13321-022-00632-5" xr:uid="{81D6B147-3E5F-9E4E-A85C-ED07D7E03164}"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.mdpi.com/2076-3417/13/5/2842" xr:uid="{5E283C9F-AD9A-BC41-B811-8A3EA5BC64C3}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://link-springer-com.bris.idm.oclc.org/article/10.1007/s11030-022-10382-z" xr:uid="{D83F20CB-5D6D-4341-A7C2-392AAABC8222}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://ieeexplore.ieee.org/document/10098038" xr:uid="{25AD98E7-FF73-7C4F-B321-39728467ADB7}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://ieeexplore.ieee.org/document/9919451" xr:uid="{DF3968CC-C6D1-A840-A8CB-C62FE2F3A804}"/>
-    <hyperlink ref="A9" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S0010482522007119" xr:uid="{B091ED87-4FBA-6743-A468-DD79F1023D23}"/>
-    <hyperlink ref="A21" r:id="rId14" display="https://link.springer.com/article/10.1007/s10489-022-03839-z" xr:uid="{03D3F73F-025A-1341-BE83-162676EC3965}"/>
-    <hyperlink ref="A27" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7153048/" xr:uid="{15A13386-1008-C542-BFCB-162AD1AD5E69}"/>
-    <hyperlink ref="A10" r:id="rId16" display="https://jcheminf.biomedcentral.com/articles/10.1186/s13321-022-00589-5" xr:uid="{0F99158A-9284-2647-A7E7-86230807BCE9}"/>
-    <hyperlink ref="A5" r:id="rId17" display="https://ojs.aaai.org/index.php/AAAI/article/view/5412" xr:uid="{F3D5BD68-2475-AA47-AFC0-F8FB0BD6C451}"/>
-    <hyperlink ref="A14" r:id="rId18" display="https://academic.oup.com/bib/article/22/4/bbaa256/5943784" xr:uid="{FDFBF1F7-7AEB-8E40-882F-0A9FE1C971CE}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://pubs.rsc.org/en/content/articlelanding/2022/SC/D2SC02023H" xr:uid="{0FF73F7C-384B-634D-A3D6-D4A3152624C7}"/>
-    <hyperlink ref="A18" r:id="rId20" display="https://ieeexplore.ieee.org/document/8999197" xr:uid="{A967A533-F8C3-1349-A60A-0F258A07251E}"/>
-    <hyperlink ref="A15" r:id="rId21" location="392953706" display="https://academic.oup.com/bib/article/24/1/bbac597/6966537?login=true - 392953706" xr:uid="{64945763-1DA3-8344-9F33-9D83676B5EBB}"/>
-    <hyperlink ref="A6" r:id="rId22" display="https://www.mdpi.com/1424-8247/14/5/429" xr:uid="{9DFE545B-F238-334B-9A25-E5F0B7105C4A}"/>
-    <hyperlink ref="A28" r:id="rId23" location="Sec15" display="https://link.springer.com/article/10.1007/s10489-022-04372-9 - Sec15" xr:uid="{F76D7A71-E6E3-2447-A566-0C80E76F8D82}"/>
-    <hyperlink ref="A25" r:id="rId24" location="Sec10" display="https://link.springer.com/article/10.1007/s00500-022-06951-x - Sec10" xr:uid="{E0B6CF5A-C69B-AA49-8E91-2D7E2DA685D4}"/>
-    <hyperlink ref="A7" r:id="rId25" display="https://www.mdpi.com/2076-3417/13/19/10750" xr:uid="{F2CC5E71-3C77-BD49-9030-496A38EE9B23}"/>
+    <hyperlink ref="A26" r:id="rId1" display="https://link.springer.com/chapter/10.1007/978-3-030-06016-9_14" xr:uid="{9D0A80F5-1260-5443-A13C-458C0EB03FBC}"/>
+    <hyperlink ref="A35" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7233093/" xr:uid="{D3EA8483-61B1-D246-B9A4-F3ECF7E3A885}"/>
+    <hyperlink ref="A34" r:id="rId3" display="https://academic.oup.com/bioinformatics/article/37/18/2955/6170654" xr:uid="{72645EC3-9072-E14B-9923-2DB2B3B744F9}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-021-04298-y" xr:uid="{F205E975-5CA8-B649-9845-12460B9DCDD6}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://link-springer-com.bris.idm.oclc.org/article/10.1007/s10489-021-02296-4" xr:uid="{A0164D2E-B329-B540-A541-3763B72EA7B1}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://link.springer.com/chapter/10.1007/978-3-030-61702-8_7" xr:uid="{DD76A4EF-5782-C443-B908-D12D8776389E}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://link.springer.com/chapter/10.1007/978-3-030-73973-7_12" xr:uid="{9C4EC909-37CB-054C-A9B8-FE05A304016A}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://jcheminf.biomedcentral.com/articles/10.1186/s13321-022-00632-5" xr:uid="{81D6B147-3E5F-9E4E-A85C-ED07D7E03164}"/>
+    <hyperlink ref="A32" r:id="rId9" display="https://www.mdpi.com/2076-3417/13/5/2842" xr:uid="{5E283C9F-AD9A-BC41-B811-8A3EA5BC64C3}"/>
+    <hyperlink ref="A25" r:id="rId10" display="https://link-springer-com.bris.idm.oclc.org/article/10.1007/s11030-022-10382-z" xr:uid="{D83F20CB-5D6D-4341-A7C2-392AAABC8222}"/>
+    <hyperlink ref="A30" r:id="rId11" display="https://ieeexplore.ieee.org/document/10098038" xr:uid="{25AD98E7-FF73-7C4F-B321-39728467ADB7}"/>
+    <hyperlink ref="A21" r:id="rId12" display="https://ieeexplore.ieee.org/document/9919451" xr:uid="{DF3968CC-C6D1-A840-A8CB-C62FE2F3A804}"/>
+    <hyperlink ref="A20" r:id="rId13" display="https://www.sciencedirect.com/science/article/abs/pii/S0010482522007119" xr:uid="{B091ED87-4FBA-6743-A468-DD79F1023D23}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://link.springer.com/article/10.1007/s10489-022-03839-z" xr:uid="{03D3F73F-025A-1341-BE83-162676EC3965}"/>
+    <hyperlink ref="A24" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC7153048/" xr:uid="{15A13386-1008-C542-BFCB-162AD1AD5E69}"/>
+    <hyperlink ref="A27" r:id="rId16" display="https://jcheminf.biomedcentral.com/articles/10.1186/s13321-022-00589-5" xr:uid="{0F99158A-9284-2647-A7E7-86230807BCE9}"/>
+    <hyperlink ref="A23" r:id="rId17" display="https://ojs.aaai.org/index.php/AAAI/article/view/5412" xr:uid="{F3D5BD68-2475-AA47-AFC0-F8FB0BD6C451}"/>
+    <hyperlink ref="A33" r:id="rId18" display="https://academic.oup.com/bib/article/22/4/bbaa256/5943784" xr:uid="{FDFBF1F7-7AEB-8E40-882F-0A9FE1C971CE}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://pubs.rsc.org/en/content/articlelanding/2022/SC/D2SC02023H" xr:uid="{0FF73F7C-384B-634D-A3D6-D4A3152624C7}"/>
+    <hyperlink ref="A11" r:id="rId20" display="https://ieeexplore.ieee.org/document/8999197" xr:uid="{A967A533-F8C3-1349-A60A-0F258A07251E}"/>
+    <hyperlink ref="A2" r:id="rId21" location="392953706" display="https://academic.oup.com/bib/article/24/1/bbac597/6966537?login=true - 392953706" xr:uid="{64945763-1DA3-8344-9F33-9D83676B5EBB}"/>
+    <hyperlink ref="A12" r:id="rId22" display="https://www.mdpi.com/1424-8247/14/5/429" xr:uid="{9DFE545B-F238-334B-9A25-E5F0B7105C4A}"/>
+    <hyperlink ref="A18" r:id="rId23" location="Sec15" display="https://link.springer.com/article/10.1007/s10489-022-04372-9 - Sec15" xr:uid="{F76D7A71-E6E3-2447-A566-0C80E76F8D82}"/>
+    <hyperlink ref="A7" r:id="rId24" location="Sec10" display="https://link.springer.com/article/10.1007/s00500-022-06951-x - Sec10" xr:uid="{E0B6CF5A-C69B-AA49-8E91-2D7E2DA685D4}"/>
+    <hyperlink ref="A17" r:id="rId25" display="https://www.mdpi.com/2076-3417/13/19/10750" xr:uid="{F2CC5E71-3C77-BD49-9030-496A38EE9B23}"/>
     <hyperlink ref="A29" r:id="rId26" display="https://dl.acm.org/doi/pdf/10.1145/3584371.3613065" xr:uid="{D933C17B-044B-6849-8358-E6129302E3C5}"/>
-    <hyperlink ref="A8" r:id="rId27" display="https://onlinelibrary.wiley.com/doi/epdf/10.15302/J-QB-022-0320?src=getftr" xr:uid="{3754773A-9FDB-2249-8969-3896BF672D72}"/>
+    <hyperlink ref="A31" r:id="rId27" display="https://onlinelibrary.wiley.com/doi/epdf/10.15302/J-QB-022-0320?src=getftr" xr:uid="{3754773A-9FDB-2249-8969-3896BF672D72}"/>
     <hyperlink ref="A4" r:id="rId28" location="fn0010" display="https://www.sciencedirect.com/science/article/pii/S0020025523007247?via%3Dihub - fn0010" xr:uid="{E9B90B49-4928-C541-AA2A-61E6B3993B3F}"/>
-    <hyperlink ref="A17" r:id="rId29" location="full-text-header" display="https://ieeexplore.ieee.org/document/10184559 - full-text-header" xr:uid="{286255F0-36E8-B243-9DCC-9AF4CEF220CE}"/>
-    <hyperlink ref="A33" r:id="rId30" location="392946506" display="https://academic.oup.com/bib/article/24/1/bbac576/6961471 - 392946506" xr:uid="{A72D21C8-0234-3245-BF58-D86CD38EED62}"/>
-    <hyperlink ref="A22" r:id="rId31" display="https://ieeexplore.ieee.org/document/10097928" xr:uid="{8D15557A-1CF9-A34C-88BA-09843F4767C4}"/>
+    <hyperlink ref="A9" r:id="rId29" location="full-text-header" display="https://ieeexplore.ieee.org/document/10184559 - full-text-header" xr:uid="{286255F0-36E8-B243-9DCC-9AF4CEF220CE}"/>
+    <hyperlink ref="A22" r:id="rId30" location="392946506" display="https://academic.oup.com/bib/article/24/1/bbac576/6961471 - 392946506" xr:uid="{A72D21C8-0234-3245-BF58-D86CD38EED62}"/>
+    <hyperlink ref="A14" r:id="rId31" display="https://ieeexplore.ieee.org/document/10097928" xr:uid="{8D15557A-1CF9-A34C-88BA-09843F4767C4}"/>
     <hyperlink ref="A13" r:id="rId32" display="https://ieeexplore.ieee.org/document/9750649" xr:uid="{D59ED082-16A2-3443-AED2-4B6142A422B4}"/>
-    <hyperlink ref="A24" r:id="rId33" location="405424051" xr:uid="{4AD5D544-B290-DA4A-B4DF-2FB25F9C44D0}"/>
+    <hyperlink ref="A28" r:id="rId33" location="405424051" xr:uid="{4AD5D544-B290-DA4A-B4DF-2FB25F9C44D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
